--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>2.164693147572</v>
+        <v>14.89913558210133</v>
       </c>
       <c r="R2">
-        <v>19.482238328148</v>
+        <v>134.092220238912</v>
       </c>
       <c r="S2">
-        <v>0.0001417318687766948</v>
+        <v>0.001237796905522976</v>
       </c>
       <c r="T2">
-        <v>0.0001417318687766948</v>
+        <v>0.001237796905522975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>177.0263315133956</v>
+        <v>232.3301699964089</v>
       </c>
       <c r="R3">
-        <v>1593.23698362056</v>
+        <v>2090.97152996768</v>
       </c>
       <c r="S3">
-        <v>0.01159068333367176</v>
+        <v>0.01930162752707984</v>
       </c>
       <c r="T3">
-        <v>0.01159068333367176</v>
+        <v>0.01930162752707984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>164.3643704505973</v>
+        <v>274.8882540752658</v>
       </c>
       <c r="R4">
-        <v>1479.279334055376</v>
+        <v>2473.994286677392</v>
       </c>
       <c r="S4">
-        <v>0.01076164971021292</v>
+        <v>0.02283728665894782</v>
       </c>
       <c r="T4">
-        <v>0.01076164971021292</v>
+        <v>0.02283728665894781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>28.46904910976711</v>
+        <v>26.23267779856178</v>
       </c>
       <c r="R5">
-        <v>256.221441987904</v>
+        <v>236.094100187056</v>
       </c>
       <c r="S5">
-        <v>0.001863992380235769</v>
+        <v>0.002179369885166281</v>
       </c>
       <c r="T5">
-        <v>0.00186399238023577</v>
+        <v>0.00217936988516628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>66.3207017212911</v>
+        <v>88.92077471775467</v>
       </c>
       <c r="R6">
-        <v>596.8863154916199</v>
+        <v>800.286972459792</v>
       </c>
       <c r="S6">
-        <v>0.004342304591338252</v>
+        <v>0.007387399032368494</v>
       </c>
       <c r="T6">
-        <v>0.004342304591338253</v>
+        <v>0.007387399032368493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>155.5800715961813</v>
+        <v>393.2217261135271</v>
       </c>
       <c r="R7">
-        <v>1400.220644365632</v>
+        <v>3538.995535021744</v>
       </c>
       <c r="S7">
-        <v>0.01018650348501892</v>
+        <v>0.03266824662985449</v>
       </c>
       <c r="T7">
-        <v>0.01018650348501892</v>
+        <v>0.03266824662985448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>6.374327167899001</v>
+        <v>33.429612275852</v>
       </c>
       <c r="R8">
-        <v>57.36894451109101</v>
+        <v>300.866510482668</v>
       </c>
       <c r="S8">
-        <v>0.0004173549044185405</v>
+        <v>0.002777279956938716</v>
       </c>
       <c r="T8">
-        <v>0.0004173549044185406</v>
+        <v>0.002777279956938716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>521.2857793101134</v>
@@ -1013,10 +1013,10 @@
         <v>4691.572013791021</v>
       </c>
       <c r="S9">
-        <v>0.03413084563565408</v>
+        <v>0.04330760808018552</v>
       </c>
       <c r="T9">
-        <v>0.03413084563565408</v>
+        <v>0.04330760808018551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>484.000364288588</v>
+        <v>616.7745573079737</v>
       </c>
       <c r="R10">
-        <v>4356.003278597293</v>
+        <v>5550.971015771765</v>
       </c>
       <c r="S10">
-        <v>0.03168960746060707</v>
+        <v>0.0512406665631161</v>
       </c>
       <c r="T10">
-        <v>0.03168960746060707</v>
+        <v>0.0512406665631161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>83.83222046421866</v>
+        <v>58.85900178106768</v>
       </c>
       <c r="R11">
-        <v>754.4899841779682</v>
+        <v>529.731016029609</v>
       </c>
       <c r="S11">
-        <v>0.005488859833746201</v>
+        <v>0.004889913905763756</v>
       </c>
       <c r="T11">
-        <v>0.005488859833746202</v>
+        <v>0.004889913905763755</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>195.2931995236017</v>
+        <v>199.514059436707</v>
       </c>
       <c r="R12">
-        <v>1757.638795712415</v>
+        <v>1795.626534930364</v>
       </c>
       <c r="S12">
-        <v>0.01278669457558273</v>
+        <v>0.01657531633417438</v>
       </c>
       <c r="T12">
-        <v>0.01278669457558273</v>
+        <v>0.01657531633417438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>458.1334210216161</v>
+        <v>882.2827183483158</v>
       </c>
       <c r="R13">
-        <v>4123.200789194545</v>
+        <v>7940.544465134843</v>
       </c>
       <c r="S13">
-        <v>0.02999598625943091</v>
+        <v>0.07329866974832371</v>
       </c>
       <c r="T13">
-        <v>0.02999598625943091</v>
+        <v>0.07329866974832371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>2.923531167279001</v>
+        <v>25.14776131018667</v>
       </c>
       <c r="R14">
-        <v>26.311780505511</v>
+        <v>226.32985179168</v>
       </c>
       <c r="S14">
-        <v>0.0001914162920643618</v>
+        <v>0.002089236718402242</v>
       </c>
       <c r="T14">
-        <v>0.0001914162920643619</v>
+        <v>0.002089236718402242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>239.0833075759356</v>
+        <v>392.1424587372445</v>
       </c>
       <c r="R15">
-        <v>2151.749768183421</v>
+        <v>3529.2821286352</v>
       </c>
       <c r="S15">
-        <v>0.01565382327470207</v>
+        <v>0.03257858278249683</v>
       </c>
       <c r="T15">
-        <v>0.01565382327470208</v>
+        <v>0.03257858278249683</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>221.9826677704814</v>
+        <v>463.9748502432089</v>
       </c>
       <c r="R16">
-        <v>1997.844009934332</v>
+        <v>4175.77365218888</v>
       </c>
       <c r="S16">
-        <v>0.0145341700621335</v>
+        <v>0.03854630563678187</v>
       </c>
       <c r="T16">
-        <v>0.0145341700621335</v>
+        <v>0.03854630563678187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>38.44893788690312</v>
+        <v>44.27727475664889</v>
       </c>
       <c r="R17">
-        <v>346.0404409821281</v>
+        <v>398.49547280984</v>
       </c>
       <c r="S17">
-        <v>0.002517419074062361</v>
+        <v>0.003678486807289046</v>
       </c>
       <c r="T17">
-        <v>0.002517419074062361</v>
+        <v>0.003678486807289045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>89.56957189774612</v>
+        <v>150.0864533916533</v>
       </c>
       <c r="R18">
-        <v>806.1261470797151</v>
+        <v>1350.77808052488</v>
       </c>
       <c r="S18">
-        <v>0.005864509168348</v>
+        <v>0.01246894805040128</v>
       </c>
       <c r="T18">
-        <v>0.005864509168348001</v>
+        <v>0.01246894805040128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>210.1190133248694</v>
+        <v>663.7060288357956</v>
       </c>
       <c r="R19">
-        <v>1891.071119923825</v>
+        <v>5973.35425952216</v>
       </c>
       <c r="S19">
-        <v>0.01375740504258165</v>
+        <v>0.05513965989119643</v>
       </c>
       <c r="T19">
-        <v>0.01375740504258165</v>
+        <v>0.05513965989119643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>32.057687058501</v>
+        <v>21.50339795396</v>
       </c>
       <c r="R20">
-        <v>288.519183526509</v>
+        <v>193.53058158564</v>
       </c>
       <c r="S20">
-        <v>0.00209895610403538</v>
+        <v>0.001786468704776147</v>
       </c>
       <c r="T20">
-        <v>0.002098956104035381</v>
+        <v>0.001786468704776147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>2621.643969786776</v>
+        <v>335.3139566127334</v>
       </c>
       <c r="R21">
-        <v>23594.79572808098</v>
+        <v>3017.8256095146</v>
       </c>
       <c r="S21">
-        <v>0.171650425152313</v>
+        <v>0.02785735961571598</v>
       </c>
       <c r="T21">
-        <v>0.1716504251523131</v>
+        <v>0.02785735961571598</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>2434.128623441545</v>
+        <v>396.7365413702767</v>
       </c>
       <c r="R22">
-        <v>21907.15761097391</v>
+        <v>3570.62887233249</v>
       </c>
       <c r="S22">
-        <v>0.1593729804291991</v>
+        <v>0.03296025198978396</v>
       </c>
       <c r="T22">
-        <v>0.1593729804291991</v>
+        <v>0.03296025198978396</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>421.6079624207591</v>
+        <v>37.86070050789667</v>
       </c>
       <c r="R23">
-        <v>3794.471661786832</v>
+        <v>340.74630457107</v>
       </c>
       <c r="S23">
-        <v>0.02760450573424341</v>
+        <v>0.003145407844056755</v>
       </c>
       <c r="T23">
-        <v>0.02760450573424341</v>
+        <v>0.003145407844056755</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>982.166134570176</v>
+        <v>128.33622424561</v>
       </c>
       <c r="R24">
-        <v>8839.495211131585</v>
+        <v>1155.02601821049</v>
       </c>
       <c r="S24">
-        <v>0.06430668561867552</v>
+        <v>0.01066197299583969</v>
       </c>
       <c r="T24">
-        <v>0.06430668561867552</v>
+        <v>0.01066197299583969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>2304.038913489318</v>
+        <v>567.5230763669366</v>
       </c>
       <c r="R25">
-        <v>20736.35022140386</v>
+        <v>5107.70768730243</v>
       </c>
       <c r="S25">
-        <v>0.1508554417097608</v>
+        <v>0.04714893047780413</v>
       </c>
       <c r="T25">
-        <v>0.1508554417097608</v>
+        <v>0.04714893047780413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>8.111809361568</v>
+        <v>39.28261435618</v>
       </c>
       <c r="R26">
-        <v>73.006284254112</v>
+        <v>353.54352920562</v>
       </c>
       <c r="S26">
-        <v>0.0005311154152563693</v>
+        <v>0.003263538224952124</v>
       </c>
       <c r="T26">
-        <v>0.0005311154152563694</v>
+        <v>0.003263538224952124</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>663.3752478151823</v>
+        <v>612.5547633943667</v>
       </c>
       <c r="R27">
-        <v>5970.37723033664</v>
+        <v>5512.992870549299</v>
       </c>
       <c r="S27">
-        <v>0.04343406070209382</v>
+        <v>0.05089009267784437</v>
       </c>
       <c r="T27">
-        <v>0.04343406070209383</v>
+        <v>0.05089009267784436</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>615.9267609937493</v>
+        <v>724.7621324323383</v>
       </c>
       <c r="R28">
-        <v>5543.340848943744</v>
+        <v>6522.859191891044</v>
       </c>
       <c r="S28">
-        <v>0.04032740204455106</v>
+        <v>0.06021210558300428</v>
       </c>
       <c r="T28">
-        <v>0.04032740204455106</v>
+        <v>0.06021210558300428</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>106.6827875085084</v>
+        <v>69.16429210354832</v>
       </c>
       <c r="R29">
-        <v>960.145087576576</v>
+        <v>622.4786289319348</v>
       </c>
       <c r="S29">
-        <v>0.006984985773548309</v>
+        <v>0.005746061324611753</v>
       </c>
       <c r="T29">
-        <v>0.00698498577354831</v>
+        <v>0.005746061324611753</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>248.5252423383644</v>
+        <v>234.445849710005</v>
       </c>
       <c r="R30">
-        <v>2236.72718104528</v>
+        <v>2110.012647390045</v>
       </c>
       <c r="S30">
-        <v>0.01627202778107642</v>
+        <v>0.01947739489211496</v>
       </c>
       <c r="T30">
-        <v>0.01627202778107642</v>
+        <v>0.01947739489211496</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>583.0091358042455</v>
+        <v>1036.756618413868</v>
       </c>
       <c r="R31">
-        <v>5247.082222238208</v>
+        <v>9330.809565724814</v>
       </c>
       <c r="S31">
-        <v>0.03817214205353008</v>
+        <v>0.08613212001337853</v>
       </c>
       <c r="T31">
-        <v>0.03817214205353008</v>
+        <v>0.08613212001337853</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>4.034386689348</v>
+        <v>39.76895957030534</v>
       </c>
       <c r="R32">
-        <v>36.30948020413199</v>
+        <v>357.920636132748</v>
       </c>
       <c r="S32">
-        <v>0.0002641488312052302</v>
+        <v>0.003303943025468434</v>
       </c>
       <c r="T32">
-        <v>0.0002641488312052303</v>
+        <v>0.003303943025468433</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>329.9279051734489</v>
+        <v>620.1386037891357</v>
       </c>
       <c r="R33">
-        <v>2969.35114656104</v>
+        <v>5581.247434102221</v>
       </c>
       <c r="S33">
-        <v>0.02160181391725763</v>
+        <v>0.05152014628873321</v>
       </c>
       <c r="T33">
-        <v>0.02160181391725764</v>
+        <v>0.05152014628873319</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>306.3295271631093</v>
+        <v>733.7351756033382</v>
       </c>
       <c r="R34">
-        <v>2756.965744467984</v>
+        <v>6603.616580430044</v>
       </c>
       <c r="S34">
-        <v>0.02005672554329767</v>
+        <v>0.06095757199003065</v>
       </c>
       <c r="T34">
-        <v>0.02005672554329767</v>
+        <v>0.06095757199003064</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>53.05839902328177</v>
+        <v>70.02059260707212</v>
       </c>
       <c r="R35">
-        <v>477.5255912095359</v>
+        <v>630.185333463649</v>
       </c>
       <c r="S35">
-        <v>0.003473963991757477</v>
+        <v>0.005817201432547467</v>
       </c>
       <c r="T35">
-        <v>0.003473963991757477</v>
+        <v>0.005817201432547466</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>123.6033645473978</v>
+        <v>237.3484471782937</v>
       </c>
       <c r="R36">
-        <v>1112.43028092658</v>
+        <v>2136.136024604643</v>
       </c>
       <c r="S36">
-        <v>0.008092849494183129</v>
+        <v>0.01971853815471758</v>
       </c>
       <c r="T36">
-        <v>0.008092849494183131</v>
+        <v>0.01971853815471757</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>289.9580343197654</v>
+        <v>1049.592363382534</v>
       </c>
       <c r="R37">
-        <v>2609.622308877888</v>
+        <v>9446.331270442801</v>
       </c>
       <c r="S37">
-        <v>0.01898481275142968</v>
+        <v>0.0871984936506104</v>
       </c>
       <c r="T37">
-        <v>0.01898481275142968</v>
+        <v>0.08719849365061039</v>
       </c>
     </row>
   </sheetData>
